--- a/misc/translations/en_la_maj.xlsx
+++ b/misc/translations/en_la_maj.xlsx
@@ -480,480 +480,480 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
+          <t>ACORN Participating Countries</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ປະເທດທີ່ເຂົ້າຮ່ວມ ACORN</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+          <t>All 'orgname' are provided.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກໆ 'orgname'ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ACORN Participating Countries</t>
+          <t>All 'patid' are provided.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ປະເທດທີ່ເຂົ້າຮ່ວມ ACORN</t>
+          <t>patid' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>All 'orgname' are provided.</t>
+          <t>All 'specdate' are provided.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ທຸກໆ 'orgname'ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
+          <t>specdate' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>All 'patid' are provided.</t>
+          <t>All 'specdate' are today or before today.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>patid' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
+          <t>ທຸກໆ 'specdate' ແມ່ນມື້ນີ້ ຫຼື ມື້ກ່ອນໜ້ານີ້</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>All 'specdate' are provided.</t>
+          <t>All 'specgroup' are provided.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specdate' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
+          <t>ທັງໝົດຂອງ'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>All 'specdate' are today or before today.</t>
+          <t>All 'specid' are provided.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ທຸກໆ 'specdate' ແມ່ນມື້ນີ້ ຫຼື ມື້ກ່ອນໜ້ານີ້</t>
+          <t>specid' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>All 'specgroup' are provided.</t>
+          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ທັງໝົດຂອງ'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
+          <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບHAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>All 'specid' are provided.</t>
+          <t>All Other Organisms</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specid' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
+          <t>ຕົວເຊື້ອອື່ນໆທັງໝົດ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
+          <t>All valid records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບHAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>All Other Organisms</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ຕົວເຊື້ອອື່ນໆທັງໝົດ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>All valid records have an ACORN ID.</t>
+          <t>and generate enrolment log.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ແລະສ້າງບັນທຶກການເຂົ້າຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AMR</t>
+          <t>Attempting to connect.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງພະຍາຍາມເຊື່ອມຕໍ່</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>and generate enrolment log.</t>
+          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ແລະສ້າງບັນທຶກການເຂົ້າຮ່ວມ</t>
+          <t>ປູກເລືອດພາຍໃນ24ຊົ່ວໂມງຂອງການເຂົ້ານອນ (CAI) / ເລີ້ມມີການຊຶມເຊື້ອໃນໂຮງໝໍ (HAI)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Attempting to connect.</t>
+          <t>Blood Culture Contaminants</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ກຳລັງພະຍາຍາມເຊື່ອມຕໍ່</t>
+          <t>ການປົນເປື້ອນຂອງການປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
+          <t>Bloodstream Infection (BSI)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ປູກເລືອດພາຍໃນ24ຊົ່ວໂມງຂອງການເຂົ້ານອນ (CAI) / ເລີ້ມມີການຊຶມເຊື້ອໃນໂຮງໝໍ (HAI)</t>
+          <t>ການຊຶມເຊື້ອໃນກະແສເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blood Culture Contaminants</t>
+          <t>Calculated age is consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ການປົນເປື້ອນຂອງການປູກເລືອດ</t>
+          <t>ການຄິດໄລ່ອາຍຸແມ່ນເໝາະສົມກັບ 'Age Category'</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bloodstream Infection (BSI)</t>
+          <t>Calculated age isn't always consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ການຊຶມເຊື້ອໃນກະແສເລືອດ</t>
+          <t>ການຄິດໄລ່ອາຍຸອາດບໍ່ເໝາະສົມກັບ 'Age Category' ສະເໝີໄປ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Calculated age is consistent with 'Age Category'</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ການຄິດໄລ່ອາຍຸແມ່ນເໝາະສົມກັບ 'Age Category'</t>
+          <t>ຍົກເລີກ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Calculated age isn't always consistent with 'Age Category'</t>
+          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ການຄິດໄລ່ອາຍຸອາດບໍ່ເໝາະສົມກັບ 'Age Category' ສະເໝີໄປ</t>
+          <t>ຄວນໃຊ້ຄວາມລະມັດລະວັງໃນການແປຄວາມໝາຍອັດຕາແລະຮູບຮ່າງລັກສະນະຂອງການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອທີ່ມີຈຳນວນຄົນເຈັບໜ້ອຍ ຫຼື ແບັກທີເຣຍທີ່ແຍກໄດ້: ການແປຜົນອາດບໍ່ໜ້າເຊື່ອຖື</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Clinical and day-28 outcomes are consistent.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ຍົກເລີກ</t>
+          <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ແມ່ນກົງກັນ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
+          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ຄວນໃຊ້ຄວາມລະມັດລະວັງໃນການແປຄວາມໝາຍອັດຕາແລະຮູບຮ່າງລັກສະນະຂອງການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອທີ່ມີຈຳນວນຄົນເຈັບໜ້ອຍ ຫຼື ແບັກທີເຣຍທີ່ແຍກໄດ້: ການແປຜົນອາດບໍ່ໜ້າເຊື່ອຖື</t>
+          <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ບໍ່ກົງກັນໃນບາງຄົນເຈັບທີ່ເສຍຊີວິດ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes are consistent.</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ແມ່ນກົງກັນ</t>
+          <t>ອາການຫຼັງຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ບໍ່ກົງກັນໃນບາງຄົນເຈັບທີ່ເສຍຊີວິດ</t>
+          <t>ສະຖານະພາບອາການຄຣີນິກຫຼັງຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ອາການຫຼັງຕິດຕາມ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ສະຖານະພາບອາການຄຣີນິກຫຼັງຕິດຕາມ</t>
+          <t>Susceptible + Intermediate ລວມເຂົ້າກັນ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄວນພິຈາລະນາບັນທຶກຂໍ້ມູນ.acorn ໃນ cloud ເພື່ອຄວາມປອດໄພເພີ້ມເຕີມ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Susceptible + Intermediate ລວມເຂົ້າກັນ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ຄວນພິຈາລະນາບັນທຶກຂໍ້ມູນ.acorn ໃນ cloud ເພື່ອຄວາມປອດໄພເພີ້ມເຕີມ</t>
+          <t>ບໍ່ສາມາດເຊື່ອມຕໍ່ກັບ server ໄດ້. ກະລຸນາກວດສອບການເຂົ້າເຖິງອີນເຕີເນັດ</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ບໍ່ສາມາດເຊື່ອມຕໍ່ກັບ server ໄດ້. ກະລຸນາກວດສອບການເຂົ້າເຖິງອີນເຕີເນັດ</t>
+          <t>ຂໍ້ຜິດພາດທີ່ຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ຂໍ້ຜິດພາດທີ່ຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ.</t>
+          <t>ຜົນການປູກຕໍ່ກັບປະເພດຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ຜົນການປູກຕໍ່ກັບປະເພດຕົວຢ່າງ</t>
+          <t>ການຈັດການຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ການຈັດການຂໍ້ມູນ</t>
+          <t>ວັນທີເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ວັນທີເຂົ້າຮ່ວມການສຶກສາ</t>
+          <t>ມື້ທີ28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ມື້ທີ28</t>
+          <t>ສະຖານະພາບມື້ທີ28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ສະຖານະພາບມື້ທີ28</t>
+          <t>ການບົ່ງມະຕິເວລາເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ການບົ່ງມະຕິເວລາເຂົ້າການສຶກສາ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການແຈກຢາຍຂອງການເຂົ້າຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ການແຈກຢາຍຂອງການເຂົ້າຮ່ວມ</t>
+          <t>ດຶງຂໍ້ມູນບັນທຶກການເຂົ້າຮ່ວມ (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ດຶງຂໍ້ມູນບັນທຶກການເຂົ້າຮ່ວມ (.xlsx)</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1188,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ຄວາມຊຸກຊຸມ HAI ແບ່ງຕາມປະເພດຂອງພະແນກ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
@@ -1668,180 +1668,180 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
+          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
+          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
+          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
+          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ເບິງລາຍອາທິດ</t>
+          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ເລືອກຮູບແບບຂໍ້ມູມແລັບ</t>
+          <t>ເບິງລາຍອາທິດ</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_la_maj.xlsx
+++ b/misc/translations/en_la_maj.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1241,134 +1241,134 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ການແຍກເຊື້ອ</t>
+          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການແຍກເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
+          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
+          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
+          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ພາສາ</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>ພາສາ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,763 +1380,763 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ເລືອກ Load .acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
+          <t>ເລືອກ Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ເຂົ້າສູ່ລະບົບ</t>
+          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ຈຸລີນຊີວິທະຍາ</t>
+          <t>ເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
+          <t>ຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
+          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ບໍ່ມີການເລືອດປູກ</t>
+          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
+          <t>ບໍ່ມີການເລືອດປູກ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
+          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
+          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
+          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
+          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
+          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
+          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ພາບລວມ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ລະຫັດຜ່ານ</t>
+          <t>ພາບລວມ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
+          <t>ລະຫັດຜ່ານ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
+          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
+          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
+          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
+          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
+          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
+          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
+          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
+          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
+          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
+          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ເບິງລາຍອາທິດ</t>
+          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເບິງລາຍອາທິດ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນຮ່ວມ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ປະເພດຂອງຕົວຢ່າງ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ການເກັບຕົວຢ່າງ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
+          <t>ການເກັບຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
+          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
+          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
+          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
+          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
+          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
+          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2196,295 +2196,295 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
+          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
+          <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
+          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
+          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
+          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
+          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
+          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
+          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
+          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
+          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ຜູ້ໃຊ້ງານ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ຕົວແປໃນຕາຕະລາງ</t>
+          <t>ຜູ້ໃຊ້ງານ</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
+          <t>ຕົວແປໃນຕາຕະລາງ</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
+          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ຍີນດີຕ້ອນຮັບ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
+          <t>ຍີນດີຕ້ອນຮັບ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
+          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
+          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2508,22 +2508,34 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>ບັນທຶກຂໍ້ມູນໃນຫ້ອງວິເຄາະ ແລະ ແບບຟອມ BSI</t>
         </is>

--- a/misc/translations/en_la_maj.xlsx
+++ b/misc/translations/en_la_maj.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(ອອກຈາກລະບົບ, ປິດ app.)</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບັນທຶກທັງໝົດມີ ACORN ID ຖືກຕ້ອງ</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອ</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Co-resistances</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຍົກເລີກ</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສ້າງ ແລະ ດຶງຂໍ້ມູນ .acorn ຈາກຂໍ້ມູນທາງຄຣີນິກ ແລະ ແລັບ</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນຮ່ວມ</t>
+          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການປະເມີນ SIR</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ)</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
         </is>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_la_maj.xlsx
+++ b/misc/translations/en_la_maj.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,1798 +744,1846 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Clinical data not provided</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ອາການຫຼັງຕິດຕາມ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ສະຖານະພາບອາການຄຣີນິກຫຼັງຕິດຕາມ</t>
+          <t>ອາການຫຼັງຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Co-resistances</t>
+          <t>ສະຖານະພາບອາການຄຣີນິກຫຼັງຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Susceptible + Intermediate ລວມເຂົ້າກັນ</t>
+          <t>Co-resistances</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ຄວນພິຈາລະນາບັນທຶກຂໍ້ມູນ.acorn ໃນ cloud ເພື່ອຄວາມປອດໄພເພີ້ມເຕີມ</t>
+          <t>Susceptible + Intermediate ລວມເຂົ້າກັນ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Contains names of organisms before and after mapping.</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄວນພິຈາລະນາບັນທຶກຂໍ້ມູນ.acorn ໃນ cloud ເພື່ອຄວາມປອດໄພເພີ້ມເຕີມ</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Contains names of organisms before and after mapping.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ບໍ່ສາມາດເຊື່ອມຕໍ່ກັບ server ໄດ້. ກະລຸນາກວດສອບການເຂົ້າເຖິງອີນເຕີເນັດ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ຂໍ້ຜິດພາດທີ່ຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ.</t>
+          <t>ບໍ່ສາມາດເຊື່ອມຕໍ່ກັບ server ໄດ້. ກະລຸນາກວດສອບການເຂົ້າເຖິງອີນເຕີເນັດ</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ຜົນການປູກຕໍ່ກັບປະເພດຕົວຢ່າງ</t>
+          <t>ຂໍ້ຜິດພາດທີ່ຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ການຈັດການຂໍ້ມູນ</t>
+          <t>ຜົນການປູກຕໍ່ກັບປະເພດຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ວັນທີເຂົ້າຮ່ວມການສຶກສາ</t>
+          <t>ການຈັດການຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ມື້ທີ28</t>
+          <t>ວັນທີເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ສະຖານະພາບມື້ທີ28</t>
+          <t>ມື້ທີ28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ການບົ່ງມະຕິເວລາເຂົ້າການສຶກສາ</t>
+          <t>ສະຖານະພາບມື້ທີ28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dismiss</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ຍົກເລີກ</t>
+          <t>ການບົ່ງມະຕິເວລາເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ການແຈກຢາຍຂອງການເຂົ້າຮ່ວມ</t>
+          <t>ຍົກເລີກ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ດຶງຂໍ້ມູນບັນທຶກການເຂົ້າຮ່ວມ (.xlsx)</t>
+          <t>ການແຈກຢາຍຂອງການເຂົ້າຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Download Lab Log (.xlsx)</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ດຶງຂໍ້ມູນບັນທຶກການເຂົ້າຮ່ວມ (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Empiric Antibiotics Prescribed</t>
+          <t>Download Lab Log (.xlsx)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ການໃຫ້ຢາຕ້ານເຊື້ອກ່ອນການບົ່ງມະຕິຊັດເຈນ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Enrolments</t>
+          <t>Empiric Antibiotics Prescribed</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ເຂົ້າການສືກສາ</t>
+          <t>ການໃຫ້ຢາຕ້ານເຊື້ອກ່ອນການບົ່ງມະຕິຊັດເຈນ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Enrolments by (type of) Ward</t>
+          <t>Enrolments</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ(ປະເພດຂອງ)ພະແນກ</t>
+          <t>ເຂົ້າການສືກສາ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Enrolments with Blood Culture</t>
+          <t>Enrolments by (type of) Ward</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ເຂົ້າຮ່ວມການສຶກສາສົມທົບກັບປູກເລືອດ</t>
+          <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ(ປະເພດຂອງ)ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Error in combining clinical and lab data.</t>
+          <t>Enrolments with Blood Culture</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ເກີດຂໍ້ຜິດພາດໃນການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະ</t>
+          <t>ເຂົ້າຮ່ວມການສຶກສາສົມທົບກັບປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
+          <t>Error in combining clinical and lab data.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ທຸກໆຟອມບັນທຶກມື້ທີ28 (F04) ຈັບຄູ່ກັບຟອມເຂົ້າການສືກສາ (F01).</t>
+          <t>ເກີດຂໍ້ຜິດພາດໃນການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
+          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ທຸກໆຟອມບັນທຶກອອກໂຮງໝໍ (F03) ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02).</t>
+          <t>ທຸກໆຟອມບັນທຶກມື້ທີ28 (F04) ຈັບຄູ່ກັບຟອມເຂົ້າການສືກສາ (F01).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າຮ່ວມການສຶກສາ (F01)</t>
+          <t>ທຸກໆຟອມບັນທຶກອອກໂຮງໝໍ (F03) ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
+          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ທຸກໆຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01)</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າຮ່ວມການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>File name:</t>
+          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ຊື່ເອກະສານ</t>
+          <t>ທຸກໆຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
+          <t>File name:</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກREDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
+          <t>ຊື່ເອກະສານ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ການຕິດຕາມ</t>
+          <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກREDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>from cultures that have growth</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ມີເຊື້ອເກີດຈາກການປູກ</t>
+          <t>ການຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Generate .acorn file</t>
+          <t>from cultures that have growth</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ສ້າງເອກະສານຂອງ.acorn</t>
+          <t>ມີເຊື້ອເກີດຈາກການປູກ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Generate and load .acorn from clinical and lab data</t>
+          <t>Generate .acorn file</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ສ້າງ ແລະ ດຶງຂໍ້ມູນ .acorn ຈາກຂໍ້ມູນທາງຄຣີນິກ ແລະ ແລັບ</t>
+          <t>ສ້າງເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Generating .acorn</t>
+          <t>Generate and load .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ກຳລັງສ້າງ .acorn</t>
+          <t>ສ້າງ ແລະ ດຶງຂໍ້ມູນ .acorn ຈາກຂໍ້ມູນທາງຄຣີນິກ ແລະ ແລັບ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating .acorn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ເອົາຂໍ້ມູນຈາກ REDCap</t>
+          <t>ກຳລັງສ້າງ .acorn</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
+          <t>ເອົາຂໍ້ມູນຈາກ REDCap</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ເກີດເຊື້ອ/ບໍ່ເກີດເຊື້ອ</t>
+          <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເກີດເຊື້ອ/ບໍ່ເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ຄວາມຊຸກຊຸມຂອງການຊຶມເຊື້ອໃນໂຮງໝໍ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
+          <t>ຄວາມຊຸກຊຸມຂອງການຊຶມເຊື້ອໃນໂຮງໝໍ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ການແຍກເຊື້ອ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
+          <t>ການແຍກເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
+          <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
+          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
+          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
+          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ພາສາ</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>ພາສາ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ເລືອກ Load .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ເຂົ້າສູ່ລະບົບ</t>
+          <t>ເລືອກ Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ຈຸລີນຊີວິທະຍາ</t>
+          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
+          <t>ເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
+          <t>ຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ບໍ່ມີການເລືອດປູກ</t>
+          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
+          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
+          <t>ບໍ່ມີການເລືອດປູກ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
+          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
+          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
+          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
+          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ພາບລວມ</t>
+          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ລະຫັດຜ່ານ</t>
+          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
+          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
+          <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
+          <t>ພາບລວມ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
+          <t>ລະຫັດຜ່ານ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
+          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
+          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
+          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
+          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
+          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
+          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
+          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ເບິງລາຍອາທິດ</t>
+          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
+          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
+          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ການປະເມີນ SIR</t>
+          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
+          <t>ເບິງລາຍອາທິດ</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
+          <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
+          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
+          <t>ການປະເມີນ SIR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
+          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
+          <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ປະເພດຂອງຕົວຢ່າງ</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ຕົວຢ່າງ</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ການເກັບຕົວຢ່າງ</t>
+          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
+          <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
+          <t>ປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
+          <t>ຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
+          <t>ການເກັບຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
+          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
+          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
+          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
+          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ)</t>
+          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
+          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
+          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+          <t>ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
+          <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+          <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
+          <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+          <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
+          <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
+          <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
+          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
+          <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
+          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
+          <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
+          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
+          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
+          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
+          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
+          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ຜູ້ໃຊ້ງານ</t>
+          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ຕົວແປໃນຕາຕະລາງ</t>
+          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
+          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
+          <t>ຜູ້ໃຊ້ງານ</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ຍີນດີຕ້ອນຮັບ</t>
+          <t>ຕົວແປໃນຕາຕະລາງ</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
+          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
+          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
+          <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
+          <t>ຍີນດີຕ້ອນຮັບ</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
+          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
+          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
+          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>You are running ACORN dashboard</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>You can check here if it's the latest production release.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Your ACORN dashboard is up to date</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
           <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>ບັນທຶກຂໍ້ມູນໃນຫ້ອງວິເຄາະ ແລະ ແບບຟອມ BSI</t>
         </is>

--- a/misc/translations/en_la_maj.xlsx
+++ b/misc/translations/en_la_maj.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,7 +449,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(4/4)ບັນທຶກເອກະສານຂອງ.acorn</t>
+          <t>(4/4) ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ທັງໝົດຂອງ'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
+          <t>ທັງໝົດຂອງ 'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບHAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
+          <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂໍ້ມູນອາການທາງຄຣີນິກບໍ່ຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມີຊື່ຂອງເຊື້ອພະຍາດທັງກ່ອນ ແລະ ຫຼັງການສ້າງແຜນພາບ</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ດຶງຂໍ້ມູນບັນທຶກທາງຫ້ອງວິເຄາະ (.xlsx)</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ(ປະເພດຂອງ)ພະແນກ</t>
+          <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ (ປະເພດຂອງ) ພະແນກ</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກREDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
+          <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກ REDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
         </is>
       </c>
     </row>
@@ -1164,1426 +1164,1474 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Generating lab file overview.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ເອົາຂໍ້ມູນຈາກ REDCap</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Get the latest production release</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
+          <t>ເອົາຂໍ້ມູນຈາກ REDCap</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ເກີດເຊື້ອ/ບໍ່ເກີດເຊື້ອ</t>
+          <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">HAI point prevalence by </t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເກີດເຊື້ອ / ບໍ່ເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t xml:space="preserve">HAI point prevalence by </t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ຄວາມຊຸກຊຸມຂອງການຊຶມເຊື້ອໃນໂຮງໝໍ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
+          <t>ຄວາມຊຸກຊຸມຂອງການຊຶມເຊື້ອໃນໂຮງໝໍ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Info on loaded .acorn</t>
+          <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Initial and Final Surveillance Diagnosis</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນ &amp; ຂັ້ນສຸດທ້າຍ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Initial and Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ການແຍກເຊື້ອ</t>
+          <t>ການເຝົ້າລະວັງການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ຂັ້ນສຸດທ້າຍ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
+          <t>ການແຍກເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
+          <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>Lab data not provided</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
+          <t>ຂໍ້ມູນທາງຫ້ອງວິເຄາະບໍ່ຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
+          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
+          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ພາສາ</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Lab file overview (optional)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Load .acorn from cloud</t>
+          <t>ພາສາ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Load .acorn from local file</t>
+          <t>Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ເລືອກ Load .acorn</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ເຂົ້າສູ່ລະບົບ</t>
+          <t>ເລືອກ Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ຈຸລີນຊີວິທະຍາ</t>
+          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
+          <t>ເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
+          <t>ຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>No Blood Culture</t>
+          <t>No .acorn has been generated</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ບໍ່ມີການເລືອດປູກ</t>
+          <t>ບໍ່ມີ .acorn ຖືກສ້າງຂື້ນ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>No .acorn has been saved</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
+          <t>ບໍ່ມີ .acorn ຖືກບັນທຶກ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
+          <t>ບໍ່ມີການເລືອດປູກ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
+          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
+          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
+          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
+          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
+          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
+          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ພາບລວມ</t>
+          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ລະຫັດຜ່ານ</t>
+          <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
+          <t>ພາບລວມ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Overview of lab file successfully generated!</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
+          <t>ລະຫັດຜ່ານ</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
+          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
+          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
+          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
+          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Remove 'Not Cultured' specimens</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Process Lab File</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
+          <t>TBT</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Remove 'Not Cultured' specimens</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ລຶບຕົວຢ່າງທີ່ບໍ່ໄດ້ຖືກປູກອອກ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
+          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
+          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
+          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
+          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
+          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ເບິງລາຍອາທິດ</t>
+          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Show antibiotics combinations</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
+          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
+          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SIR Evaluation</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ການປະເມີນ SIR</t>
+          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
+          <t>ເບິງລາຍອາທິດ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
+          <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
+          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
+          <t>ການປະເມີນ SIR</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
+          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Some records with a missing ACORN ID. These records have been removed.</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
+          <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ປະເພດຂອງຕົວຢ່າງ</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Specimens</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ຕົວຢ່າງ</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ການເກັບຕົວຢ່າງ</t>
+          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
+          <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
+          <t>ປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
+          <t>ຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
+          <t>ການເກັບຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
+          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
+          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
+          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
+          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ)</t>
+          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
+          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
+          <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
+          <t>Susceptible ແລະ Intermediate ແມ່ນຖືກລວມເຂົ້າກັນທຸກໆຄັ້ງໃນການນຳສະເໜີຂໍ້ມູນຂອງ co-resistances.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>The REDCap dataset is in the right format.</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
+          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>There are D28 follow-up done before the expected D28 date.</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+          <t>ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
+          <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are no D28 follow-up done before the expected D28 date.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+          <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
+          <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+          <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
+          <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
+          <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
+          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
+          <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
+          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
+          <t>ມີແຖວຂອງ 'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
+          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
+          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
+          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
+          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
+          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Updated Charlson Comorbidity Index (uCCI)</t>
+          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ຜູ້ໃຊ້ງານ</t>
+          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ຕົວແປໃນຕາຕະລາງ</t>
+          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
+          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
+          <t>ຜູ້ໃຊ້ງານ</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ຍີນດີຕ້ອນຮັບ</t>
+          <t>ຕົວແປໃນຕາຕະລາງ</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
+          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
+          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
+          <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>You are running ACORN dashboard</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
+          <t>ຍີນດີຕ້ອນຮັບ</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>You can check here if it's the latest production release.</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
+          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Your ACORN dashboard is up to date</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
+          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Follow us on Twitter</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
+          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
+          <t>You are running ACORN dashboard</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>You can check here if it's the latest production release.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Your ACORN dashboard is up to date</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Follow us on Twitter</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>ບັນທຶກຂໍ້ມູນໃນຫ້ອງວິເຄາະ ແລະ ແບບຟອມ BSI</t>
         </is>
